--- a/biology/Microbiologie/Colwelliaceae/Colwelliaceae.xlsx
+++ b/biology/Microbiologie/Colwelliaceae/Colwelliaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Colwelliaceae forment une famille de bactéries à Gram négatif, de l'embranchement des Pseudomonadota. Cet ordre est contient les bactéries des genres Colwellia, Thalassomonas et Litorilituus entre autres.
 </t>
@@ -513,22 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Étymologie
-La famille Colwelliaceae a été nommée ainsi d'après le genre type qui lui a été assigné, Colwellia[1]. Son étymologie est la suivante : Col.wel.li.a’ce.ae N.L. fem. n. Colwellia, genre type de cette famille; L. fem. pl. n. suff. -aceae, suffixe utilisé pour nommer une famille; N.L. fem. pl. n. Colwelliaceae, la famille des Colwellia[1],[2].
-Historique
-La famille Colwelliaceae été décrite en 2004 par regroupement dans une même famille des genres de Protéobactéries Colwellia et Thalassomonas du fait de l'homologie de leurs séquences nucléotidiques en ARNr 16S[3]. Cette même étude considère le genre Idiomarina comme trop éloigné pour faire partie de la même famille que les Colwellia[3]. En 2005, lors de la description de l'ordre Alteromonadales dans le Bergey's Manual, la famille Alteromonadaceae y est intégrée comme unique famille de cet ordre[4] et la même année dans la liste des nouveaux noms n°106 séparée en plusieurs familles dont les Colwelliaceae[5].
-Liste des genres
-Genres décrits de manière valide
-Selon la LPSN  (19 septembre 2022)[6], la famille des Colwelliaceae compte cinq genres publiées de manière valide :
-Colwellia, genre type depuis la description de la famille en 2004[1].
-Litorilituus depuis 2013
-Piscinibacterium depuis 2016
-Thalassomonasdepuis la description de la famille en 2004[1].
-Thalassotalea depuis 2014
-Genres synonymes
-Deux genres ont changé de nom car ils ont été considérés comme synonymes d'autres genres
-Cognaticolwellia genre décrit en 2020[7] dont le nom est pour l'instant considéré comme synonyme de Colwellia
-Pseudocolwellia genre décrit en 2020[7] dont le nom est pour l'instant considéré comme synonyme de Colwellia</t>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille Colwelliaceae a été nommée ainsi d'après le genre type qui lui a été assigné, Colwellia. Son étymologie est la suivante : Col.wel.li.a’ce.ae N.L. fem. n. Colwellia, genre type de cette famille; L. fem. pl. n. suff. -aceae, suffixe utilisé pour nommer une famille; N.L. fem. pl. n. Colwelliaceae, la famille des Colwellia,.
+</t>
         </is>
       </c>
     </row>
@@ -553,12 +557,97 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille Colwelliaceae été décrite en 2004 par regroupement dans une même famille des genres de Protéobactéries Colwellia et Thalassomonas du fait de l'homologie de leurs séquences nucléotidiques en ARNr 16S. Cette même étude considère le genre Idiomarina comme trop éloigné pour faire partie de la même famille que les Colwellia. En 2005, lors de la description de l'ordre Alteromonadales dans le Bergey's Manual, la famille Alteromonadaceae y est intégrée comme unique famille de cet ordre et la même année dans la liste des nouveaux noms n°106 séparée en plusieurs familles dont les Colwelliaceae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Colwelliaceae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colwelliaceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Genres décrits de manière valide
+Selon la LPSN  (19 septembre 2022), la famille des Colwelliaceae compte cinq genres publiées de manière valide :
+Colwellia, genre type depuis la description de la famille en 2004.
+Litorilituus depuis 2013
+Piscinibacterium depuis 2016
+Thalassomonasdepuis la description de la famille en 2004.
+Thalassotalea depuis 2014
+Genres synonymes
+Deux genres ont changé de nom car ils ont été considérés comme synonymes d'autres genres
+Cognaticolwellia genre décrit en 2020 dont le nom est pour l'instant considéré comme synonyme de Colwellia
+Pseudocolwellia genre décrit en 2020 dont le nom est pour l'instant considéré comme synonyme de Colwellia</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Colwelliaceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colwelliaceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lors de sa description de 2004, la famille Colwelliaceae est composée de bactéries à Gram négatif avec des bacilles à morphologie incurvée et mobiles bien que quelques espèces semblent non mobiles[1]. Ces bacilles ne forment pas d'endospores ni de kystes[1]. La majeure partie des bactéries de cette famille sont des chimioorganotrophes anaérobies facultatifs nécessitant des ions sodium pour leur croissance[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de sa description de 2004, la famille Colwelliaceae est composée de bactéries à Gram négatif avec des bacilles à morphologie incurvée et mobiles bien que quelques espèces semblent non mobiles. Ces bacilles ne forment pas d'endospores ni de kystes. La majeure partie des bactéries de cette famille sont des chimioorganotrophes anaérobies facultatifs nécessitant des ions sodium pour leur croissance.
 </t>
         </is>
       </c>
